--- a/log_history/Y4_B2526_General_Surgery_scanner1763889253921_412de898fa38de7e284b58047ef9f3c3397f8d8f5931e4595a3fdbe4844ec332.xlsx
+++ b/log_history/Y4_B2526_General_Surgery_scanner1763889253921_412de898fa38de7e284b58047ef9f3c3397f8d8f5931e4595a3fdbe4844ec332.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Session" sheetId="1" r:id="rId1"/>
+    <sheet name="General_Surgery" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
